--- a/MarksData2.xlsx
+++ b/MarksData2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +470,9 @@
       <c r="M1" s="1" t="n">
         <v>11</v>
       </c>
+      <c r="N1" s="1" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -510,6 +513,9 @@
       </c>
       <c r="M2" t="n">
         <v>9</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="3">
@@ -548,6 +554,7 @@
       </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
